--- a/inst/extdata/data_dictionary_Banff_2024_02_23_TA_test.xlsx
+++ b/inst/extdata/data_dictionary_Banff_2024_02_23_TA_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/684276df0d08ce70/Bureau/R/lakebanff/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\OneDrive\Bureau\R\banffIT\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2039" documentId="11_68F68F7C8275434163F1C93C2E0FF62340D1E1FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6584E95-800A-4C07-9C12-309957CE032C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A6DFA5-F3EE-4998-8D4E-37CCF8467C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="read me" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Categories!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Data Processing Elements'!$A$1:$H$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$1:$I$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$1:$H$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="733">
   <si>
     <t>type_bx</t>
   </si>
@@ -1026,9 +1026,6 @@
   </si>
   <si>
     <t>NA accepted or not</t>
-  </si>
-  <si>
-    <t>contraintes</t>
   </si>
   <si>
     <t>Classification date</t>
@@ -1990,15 +1987,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>1900 à auj</t>
-  </si>
-  <si>
-    <t>NA if arteries et glomerulies ne le sont pas toutes les deux
-"Adequate":  &gt;= 10 glomeruli AND &gt;= 2 arteries 
-"Minimal": &gt;7 and &lt;10 glomeruli AND 1 artery
-"Inadequate": if none of the above criteria are met</t>
-  </si>
-  <si>
     <t>hist_dsa_calculated</t>
   </si>
   <si>
@@ -2024,12 +2012,6 @@
   </si>
   <si>
     <t>decimal</t>
-  </si>
-  <si>
-    <t>0 et 100</t>
-  </si>
-  <si>
-    <t>NA si microscopy = 0</t>
   </si>
   <si>
     <t>Minimal</t>
@@ -2165,9 +2147,6 @@
   </si>
   <si>
     <t>श्रेणी 6.8: दवा-प्रेरित अंतरालीय नेफ्रैटिस</t>
-  </si>
-  <si>
-    <t>primary (patient_id, centre, biopsy_id,sc_date_bx)</t>
   </si>
   <si>
     <t>None</t>
@@ -2333,6 +2312,24 @@
   </si>
   <si>
     <t>This is a test with TA</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (patient_id, centre, biopsy_id,sc_date_bx)</t>
+  </si>
+  <si>
+    <t>1900 to today</t>
+  </si>
+  <si>
+    <t>NA if both arteries et glomerulies are not
+"Adequate":  &gt;= 10 glomeruli AND &gt;= 2 arteries 
+"Minimal": &gt;7 and &lt;10 glomeruli AND 1 artery
+"Inadequate": if none of the above criteria are met</t>
+  </si>
+  <si>
+    <t>Between 0 and 100</t>
+  </si>
+  <si>
+    <t>constraints</t>
   </si>
 </sst>
 </file>
@@ -2445,7 +2442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2529,6 +2526,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2544,10 +2550,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2826,7 +2828,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -2834,7 +2836,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2842,7 +2844,7 @@
         <v>45352</v>
       </c>
       <c r="B16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2854,9 +2856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2887,10 +2889,10 @@
         <v>163</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>638</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>166</v>
@@ -2898,8 +2900,8 @@
       <c r="H1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>327</v>
+      <c r="I1" s="33" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2925,10 +2927,10 @@
         <v>288</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>698</v>
+        <v>638</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2954,10 +2956,10 @@
         <v>288</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2983,10 +2985,10 @@
         <v>288</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3012,10 +3014,10 @@
         <v>289</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>641</v>
+        <v>638</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3041,10 +3043,10 @@
         <v>289</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3070,10 +3072,10 @@
         <v>290</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>699</v>
+        <v>639</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3099,10 +3101,10 @@
         <v>290</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3128,10 +3130,10 @@
         <v>290</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3157,10 +3159,10 @@
         <v>290</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3186,10 +3188,10 @@
         <v>290</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3215,10 +3217,10 @@
         <v>290</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3244,10 +3246,10 @@
         <v>290</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3273,10 +3275,10 @@
         <v>290</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3302,10 +3304,10 @@
         <v>290</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3331,10 +3333,10 @@
         <v>290</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3360,10 +3362,10 @@
         <v>290</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3371,10 +3373,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>24</v>
@@ -3389,10 +3391,10 @@
         <v>290</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3418,10 +3420,10 @@
         <v>290</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3447,10 +3449,10 @@
         <v>290</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3476,10 +3478,10 @@
         <v>290</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3505,10 +3507,10 @@
         <v>290</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3534,10 +3536,10 @@
         <v>290</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3563,10 +3565,10 @@
         <v>290</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3592,10 +3594,10 @@
         <v>288</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3621,10 +3623,10 @@
         <v>290</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3650,10 +3652,10 @@
         <v>290</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3679,10 +3681,10 @@
         <v>290</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3708,10 +3710,10 @@
         <v>290</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3737,10 +3739,10 @@
         <v>290</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3766,10 +3768,10 @@
         <v>290</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3795,10 +3797,10 @@
         <v>290</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3824,10 +3826,10 @@
         <v>290</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3850,13 +3852,13 @@
         <v>24</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>652</v>
+        <v>638</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3882,10 +3884,10 @@
         <v>290</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -3911,10 +3913,10 @@
         <v>290</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -3940,10 +3942,10 @@
         <v>290</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3969,10 +3971,10 @@
         <v>290</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3998,10 +4000,10 @@
         <v>290</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -4027,10 +4029,10 @@
         <v>290</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4056,10 +4058,10 @@
         <v>290</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -4085,10 +4087,10 @@
         <v>290</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -4114,10 +4116,10 @@
         <v>290</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -4143,10 +4145,10 @@
         <v>290</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4171,11 +4173,11 @@
       <c r="G45" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>653</v>
+      <c r="H45" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4201,10 +4203,10 @@
         <v>290</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4230,10 +4232,10 @@
         <v>290</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4259,10 +4261,10 @@
         <v>290</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4288,10 +4290,10 @@
         <v>290</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -4317,10 +4319,10 @@
         <v>290</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>699</v>
+        <v>639</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -4331,7 +4333,7 @@
         <v>314</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>24</v>
@@ -4346,10 +4348,10 @@
         <v>290</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -4360,7 +4362,7 @@
         <v>315</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>24</v>
@@ -4375,10 +4377,10 @@
         <v>290</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4404,10 +4406,10 @@
         <v>290</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>699</v>
+        <v>638</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4415,10 +4417,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>24</v>
@@ -4427,16 +4429,16 @@
         <v>23</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4462,10 +4464,10 @@
         <v>290</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -4491,10 +4493,10 @@
         <v>290</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4502,10 +4504,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C57" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>24</v>
@@ -4514,16 +4516,16 @@
         <v>23</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4531,10 +4533,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>650</v>
+      </c>
+      <c r="C58" t="s">
         <v>655</v>
-      </c>
-      <c r="C58" t="s">
-        <v>660</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>24</v>
@@ -4543,16 +4545,16 @@
         <v>23</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4560,10 +4562,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C59" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>24</v>
@@ -4572,16 +4574,16 @@
         <v>23</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4589,10 +4591,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>24</v>
@@ -4601,16 +4603,16 @@
         <v>23</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4618,10 +4620,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>24</v>
@@ -4630,16 +4632,16 @@
         <v>23</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4647,10 +4649,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C62" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>24</v>
@@ -4659,16 +4661,16 @@
         <v>23</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4676,10 +4678,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C63" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>24</v>
@@ -4688,16 +4690,16 @@
         <v>23</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4705,10 +4707,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C64" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>24</v>
@@ -4717,16 +4719,16 @@
         <v>23</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4734,10 +4736,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C65" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>24</v>
@@ -4746,16 +4748,16 @@
         <v>23</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4763,10 +4765,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C66" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>24</v>
@@ -4775,16 +4777,16 @@
         <v>23</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4792,10 +4794,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C67" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>24</v>
@@ -4804,16 +4806,16 @@
         <v>23</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4821,10 +4823,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C68" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>24</v>
@@ -4833,16 +4835,16 @@
         <v>23</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4850,10 +4852,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C69" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>24</v>
@@ -4862,16 +4864,16 @@
         <v>23</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4879,10 +4881,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C70" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>24</v>
@@ -4891,16 +4893,16 @@
         <v>23</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4908,10 +4910,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C71" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>24</v>
@@ -4920,16 +4922,16 @@
         <v>23</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4937,10 +4939,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C72" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>24</v>
@@ -4949,16 +4951,16 @@
         <v>23</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4966,10 +4968,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C73" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>24</v>
@@ -4978,16 +4980,16 @@
         <v>23</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -4995,10 +4997,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C74" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>24</v>
@@ -5007,16 +5009,16 @@
         <v>23</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5024,10 +5026,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C75" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>23</v>
@@ -5036,16 +5038,16 @@
         <v>23</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5053,10 +5055,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C76" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>23</v>
@@ -5065,16 +5067,16 @@
         <v>23</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5082,10 +5084,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>24</v>
@@ -5100,10 +5102,10 @@
         <v>290</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5111,10 +5113,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C78" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>23</v>
@@ -5123,16 +5125,16 @@
         <v>23</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5140,10 +5142,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C79" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>23</v>
@@ -5152,16 +5154,16 @@
         <v>23</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5169,10 +5171,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C80" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>23</v>
@@ -5181,16 +5183,16 @@
         <v>23</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5198,10 +5200,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>24</v>
@@ -5216,10 +5218,10 @@
         <v>290</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5227,10 +5229,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C82" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>24</v>
@@ -5239,16 +5241,16 @@
         <v>23</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5256,10 +5258,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C83" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>24</v>
@@ -5268,16 +5270,16 @@
         <v>23</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5285,10 +5287,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C84" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>24</v>
@@ -5297,16 +5299,16 @@
         <v>23</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5314,10 +5316,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C85" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>24</v>
@@ -5326,16 +5328,16 @@
         <v>23</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5343,10 +5345,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C86" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>24</v>
@@ -5355,16 +5357,16 @@
         <v>23</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5372,10 +5374,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C87" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>24</v>
@@ -5384,16 +5386,16 @@
         <v>23</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5401,10 +5403,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C88" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>24</v>
@@ -5413,16 +5415,16 @@
         <v>23</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5430,10 +5432,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C89" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>24</v>
@@ -5442,16 +5444,16 @@
         <v>23</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5459,10 +5461,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C90" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>24</v>
@@ -5471,16 +5473,16 @@
         <v>23</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5488,10 +5490,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C91" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>24</v>
@@ -5500,16 +5502,16 @@
         <v>23</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5517,10 +5519,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C92" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>24</v>
@@ -5529,16 +5531,16 @@
         <v>23</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5546,10 +5548,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C93" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>24</v>
@@ -5558,16 +5560,16 @@
         <v>23</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5575,10 +5577,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C94" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>23</v>
@@ -5587,16 +5589,16 @@
         <v>23</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5604,10 +5606,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C95" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>23</v>
@@ -5616,16 +5618,16 @@
         <v>23</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5633,10 +5635,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>24</v>
@@ -5651,10 +5653,10 @@
         <v>290</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5662,10 +5664,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C97" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D97" s="24" t="s">
         <v>23</v>
@@ -5674,16 +5676,16 @@
         <v>23</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5691,10 +5693,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C98" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>23</v>
@@ -5703,16 +5705,16 @@
         <v>23</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5720,10 +5722,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>24</v>
@@ -5738,10 +5740,10 @@
         <v>290</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5749,10 +5751,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C100" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>24</v>
@@ -5761,16 +5763,16 @@
         <v>23</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5778,10 +5780,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C101" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>24</v>
@@ -5790,16 +5792,16 @@
         <v>23</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5807,10 +5809,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C102" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>24</v>
@@ -5819,16 +5821,16 @@
         <v>23</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5836,10 +5838,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C103" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D103" s="24" t="s">
         <v>24</v>
@@ -5848,16 +5850,16 @@
         <v>23</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5865,10 +5867,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C104" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>24</v>
@@ -5877,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5894,10 +5896,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C105" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>24</v>
@@ -5906,16 +5908,16 @@
         <v>23</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5923,10 +5925,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C106" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>24</v>
@@ -5941,10 +5943,10 @@
         <v>290</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5952,10 +5954,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C107" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>24</v>
@@ -5970,10 +5972,10 @@
         <v>290</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -5981,10 +5983,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C108" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>24</v>
@@ -5999,10 +6001,10 @@
         <v>290</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6010,10 +6012,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C109" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>24</v>
@@ -6028,10 +6030,10 @@
         <v>290</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6039,10 +6041,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C110" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>24</v>
@@ -6057,10 +6059,10 @@
         <v>290</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6068,10 +6070,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C111" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D111" s="24" t="s">
         <v>24</v>
@@ -6086,10 +6088,10 @@
         <v>290</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6097,10 +6099,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C112" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>24</v>
@@ -6115,10 +6117,10 @@
         <v>290</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6126,10 +6128,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C113" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>24</v>
@@ -6144,10 +6146,10 @@
         <v>290</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6155,10 +6157,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C114" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>24</v>
@@ -6173,10 +6175,10 @@
         <v>290</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6184,10 +6186,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C115" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>24</v>
@@ -6202,10 +6204,10 @@
         <v>290</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6213,10 +6215,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C116" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>24</v>
@@ -6231,10 +6233,10 @@
         <v>290</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6242,10 +6244,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C117" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>24</v>
@@ -6260,10 +6262,10 @@
         <v>290</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6271,10 +6273,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C118" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D118" s="24" t="s">
         <v>24</v>
@@ -6289,10 +6291,10 @@
         <v>290</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6300,10 +6302,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C119" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>24</v>
@@ -6318,10 +6320,10 @@
         <v>290</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6329,10 +6331,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C120" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>24</v>
@@ -6347,10 +6349,10 @@
         <v>290</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6358,10 +6360,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C121" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>24</v>
@@ -6376,10 +6378,10 @@
         <v>290</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -6431,7 +6433,7 @@
       <c r="B138"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6466,25 +6468,25 @@
         <v>167</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>631</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>635</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6537,10 +6539,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -6705,10 +6707,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6719,10 +6721,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6761,10 +6763,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6775,10 +6777,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6895,16 +6897,16 @@
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B29" s="8">
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -6916,16 +6918,16 @@
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B30" s="8">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -7972,10 +7974,10 @@
         <v>0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -7993,10 +7995,10 @@
         <v>1</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -8014,10 +8016,10 @@
         <v>2</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -8077,10 +8079,10 @@
         <v>2</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -8974,7 +8976,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B128" s="8">
         <v>1</v>
@@ -8983,26 +8985,26 @@
         <v>33</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B129" s="8">
         <v>2</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B130" s="8">
         <v>3</v>
@@ -9011,7 +9013,7 @@
         <v>34</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9025,7 +9027,7 @@
         <v>117</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -9046,7 +9048,7 @@
         <v>118</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -9064,10 +9066,10 @@
         <v>0</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -9084,10 +9086,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -9098,63 +9100,63 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B136" s="10">
         <v>1</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B137" s="10">
         <v>2</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B138" s="10">
         <v>3</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B139" s="10">
         <v>0</v>
@@ -9168,7 +9170,7 @@
     </row>
     <row r="140" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B140" s="10">
         <v>1</v>
@@ -9182,7 +9184,7 @@
     </row>
     <row r="141" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B141" s="10">
         <v>0</v>
@@ -9196,7 +9198,7 @@
     </row>
     <row r="142" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B142" s="10">
         <v>1</v>
@@ -9210,7 +9212,7 @@
     </row>
     <row r="143" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B143" s="10">
         <v>0</v>
@@ -9224,7 +9226,7 @@
     </row>
     <row r="144" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B144" s="10">
         <v>1</v>
@@ -9238,7 +9240,7 @@
     </row>
     <row r="145" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B145" s="10">
         <v>0</v>
@@ -9252,7 +9254,7 @@
     </row>
     <row r="146" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B146" s="10">
         <v>1</v>
@@ -9266,7 +9268,7 @@
     </row>
     <row r="147" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B147" s="10">
         <v>0</v>
@@ -9280,7 +9282,7 @@
     </row>
     <row r="148" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B148" s="10">
         <v>1</v>
@@ -9294,7 +9296,7 @@
     </row>
     <row r="149" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B149" s="10">
         <v>0</v>
@@ -9308,7 +9310,7 @@
     </row>
     <row r="150" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B150" s="10">
         <v>1</v>
@@ -9322,7 +9324,7 @@
     </row>
     <row r="151" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B151" s="10">
         <v>0</v>
@@ -9336,7 +9338,7 @@
     </row>
     <row r="152" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B152" s="10">
         <v>1</v>
@@ -9350,7 +9352,7 @@
     </row>
     <row r="153" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B153" s="10">
         <v>0</v>
@@ -9364,7 +9366,7 @@
     </row>
     <row r="154" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B154" s="10">
         <v>1</v>
@@ -9378,7 +9380,7 @@
     </row>
     <row r="155" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B155" s="10">
         <v>0</v>
@@ -9392,7 +9394,7 @@
     </row>
     <row r="156" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B156" s="10">
         <v>1</v>
@@ -9406,7 +9408,7 @@
     </row>
     <row r="157" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B157" s="10">
         <v>0</v>
@@ -9420,7 +9422,7 @@
     </row>
     <row r="158" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B158" s="10">
         <v>1</v>
@@ -9434,7 +9436,7 @@
     </row>
     <row r="159" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B159" s="10">
         <v>0</v>
@@ -9448,7 +9450,7 @@
     </row>
     <row r="160" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B160" s="10">
         <v>1</v>
@@ -9462,7 +9464,7 @@
     </row>
     <row r="161" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B161" s="10">
         <v>0</v>
@@ -9476,7 +9478,7 @@
     </row>
     <row r="162" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B162" s="10">
         <v>1</v>
@@ -9490,7 +9492,7 @@
     </row>
     <row r="163" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B163" s="10">
         <v>0</v>
@@ -9504,7 +9506,7 @@
     </row>
     <row r="164" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B164" s="10">
         <v>1</v>
@@ -9518,7 +9520,7 @@
     </row>
     <row r="165" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B165" s="10">
         <v>0</v>
@@ -9532,7 +9534,7 @@
     </row>
     <row r="166" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B166" s="10">
         <v>1</v>
@@ -9546,7 +9548,7 @@
     </row>
     <row r="167" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B167" s="10">
         <v>0</v>
@@ -9560,7 +9562,7 @@
     </row>
     <row r="168" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B168" s="10">
         <v>1</v>
@@ -9574,7 +9576,7 @@
     </row>
     <row r="169" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B169" s="10">
         <v>0</v>
@@ -9588,7 +9590,7 @@
     </row>
     <row r="170" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B170" s="10">
         <v>1</v>
@@ -9602,7 +9604,7 @@
     </row>
     <row r="171" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B171" s="10">
         <v>0</v>
@@ -9616,7 +9618,7 @@
     </row>
     <row r="172" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B172" s="10">
         <v>1</v>
@@ -9630,7 +9632,7 @@
     </row>
     <row r="173" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B173" s="10">
         <v>0</v>
@@ -9644,7 +9646,7 @@
     </row>
     <row r="174" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B174" s="10">
         <v>1</v>
@@ -9658,7 +9660,7 @@
     </row>
     <row r="175" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B175" s="10">
         <v>0</v>
@@ -9672,7 +9674,7 @@
     </row>
     <row r="176" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B176" s="10">
         <v>1</v>
@@ -9686,7 +9688,7 @@
     </row>
     <row r="177" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B177" s="10">
         <v>0</v>
@@ -9700,7 +9702,7 @@
     </row>
     <row r="178" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B178" s="10">
         <v>1</v>
@@ -9714,7 +9716,7 @@
     </row>
     <row r="179" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B179" s="10">
         <v>0</v>
@@ -9728,7 +9730,7 @@
     </row>
     <row r="180" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B180" s="10">
         <v>1</v>
@@ -9742,7 +9744,7 @@
     </row>
     <row r="181" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B181" s="10">
         <v>0</v>
@@ -9756,7 +9758,7 @@
     </row>
     <row r="182" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B182" s="10">
         <v>1</v>
@@ -9770,7 +9772,7 @@
     </row>
     <row r="183" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B183" s="10">
         <v>0</v>
@@ -9784,7 +9786,7 @@
     </row>
     <row r="184" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B184" s="10">
         <v>1</v>
@@ -9798,7 +9800,7 @@
     </row>
     <row r="185" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B185" s="10">
         <v>0</v>
@@ -9812,7 +9814,7 @@
     </row>
     <row r="186" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B186" s="10">
         <v>1</v>
@@ -9826,7 +9828,7 @@
     </row>
     <row r="187" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B187" s="10">
         <v>0</v>
@@ -9840,7 +9842,7 @@
     </row>
     <row r="188" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B188" s="10">
         <v>1</v>
@@ -9854,7 +9856,7 @@
     </row>
     <row r="189" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B189" s="10">
         <v>0</v>
@@ -9868,7 +9870,7 @@
     </row>
     <row r="190" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B190" s="10">
         <v>1</v>
@@ -9882,7 +9884,7 @@
     </row>
     <row r="191" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B191" s="10">
         <v>0</v>
@@ -9896,7 +9898,7 @@
     </row>
     <row r="192" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B192" s="10">
         <v>1</v>
@@ -9910,7 +9912,7 @@
     </row>
     <row r="193" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B193" s="10">
         <v>0</v>
@@ -9924,7 +9926,7 @@
     </row>
     <row r="194" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B194" s="10">
         <v>1</v>
@@ -9938,7 +9940,7 @@
     </row>
     <row r="195" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B195" s="10">
         <v>0</v>
@@ -9952,7 +9954,7 @@
     </row>
     <row r="196" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B196" s="10">
         <v>1</v>
@@ -9966,7 +9968,7 @@
     </row>
     <row r="197" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B197" s="10">
         <v>0</v>
@@ -9980,7 +9982,7 @@
     </row>
     <row r="198" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B198" s="10">
         <v>1</v>
@@ -9994,7 +9996,7 @@
     </row>
     <row r="199" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B199" s="10">
         <v>0</v>
@@ -10008,7 +10010,7 @@
     </row>
     <row r="200" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B200" s="10">
         <v>1</v>
@@ -10022,7 +10024,7 @@
     </row>
     <row r="201" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B201" s="10">
         <v>0</v>
@@ -10036,7 +10038,7 @@
     </row>
     <row r="202" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B202" s="10">
         <v>1</v>
@@ -10050,7 +10052,7 @@
     </row>
     <row r="203" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B203" s="10">
         <v>0</v>
@@ -10064,7 +10066,7 @@
     </row>
     <row r="204" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B204" s="10">
         <v>1</v>
@@ -10078,7 +10080,7 @@
     </row>
     <row r="205" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B205" s="10">
         <v>0</v>
@@ -10092,7 +10094,7 @@
     </row>
     <row r="206" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B206" s="10">
         <v>1</v>
@@ -10106,7 +10108,7 @@
     </row>
     <row r="207" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B207" s="10">
         <v>0</v>
@@ -10120,7 +10122,7 @@
     </row>
     <row r="208" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B208" s="10">
         <v>1</v>
@@ -10134,7 +10136,7 @@
     </row>
     <row r="209" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B209" s="10">
         <v>0</v>
@@ -10148,7 +10150,7 @@
     </row>
     <row r="210" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B210" s="10">
         <v>1</v>
@@ -10162,1314 +10164,1314 @@
     </row>
     <row r="211" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B211" s="10">
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B212" s="10">
         <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B213" s="10">
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B214" s="10">
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B215" s="10">
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B216" s="10">
         <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B217" s="10">
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B218" s="10">
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B219" s="10">
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B220" s="10">
         <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B221" s="10">
         <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B222" s="10">
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B223" s="10">
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B224" s="10">
         <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B225" s="10">
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B226" s="10">
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B227" s="15">
         <v>1</v>
       </c>
       <c r="C227" t="s">
+        <v>616</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E227" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="D227" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E227" s="26" t="s">
+      <c r="F227" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="F227" s="26" t="s">
+      <c r="G227" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="G227" s="26" t="s">
+      <c r="H227" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="H227" s="26" t="s">
+      <c r="I227" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="I227" s="26" t="s">
+      <c r="J227" s="26" t="s">
         <v>622</v>
-      </c>
-      <c r="J227" s="26" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B228" s="15">
         <v>1</v>
       </c>
       <c r="C228" t="s">
+        <v>623</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E228" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="D228" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E228" s="26" t="s">
+      <c r="F228" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="F228" s="26" t="s">
+      <c r="G228" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="G228" s="26" t="s">
+      <c r="H228" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="H228" s="26" t="s">
+      <c r="I228" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="I228" s="26" t="s">
+      <c r="J228" s="26" t="s">
         <v>629</v>
-      </c>
-      <c r="J228" s="26" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B229" s="15">
         <v>2</v>
       </c>
       <c r="C229" t="s">
+        <v>444</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E229" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="D229" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E229" s="26" t="s">
+      <c r="F229" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="F229" s="26" t="s">
+      <c r="G229" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="G229" s="26" t="s">
+      <c r="H229" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="H229" s="26" t="s">
+      <c r="I229" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="I229" s="26" t="s">
+      <c r="J229" s="26" t="s">
         <v>450</v>
-      </c>
-      <c r="J229" s="26" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B230" s="15">
         <v>3</v>
       </c>
       <c r="C230" t="s">
+        <v>451</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E230" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D230" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E230" s="26" t="s">
+      <c r="F230" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="F230" s="26" t="s">
+      <c r="G230" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="G230" s="26" t="s">
+      <c r="H230" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="H230" s="26" t="s">
+      <c r="I230" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="I230" s="26" t="s">
+      <c r="J230" s="26" t="s">
         <v>457</v>
-      </c>
-      <c r="J230" s="26" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B231" s="15">
         <v>4</v>
       </c>
       <c r="C231" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E231" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="F231" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="F231" s="26" t="s">
+      <c r="G231" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="G231" s="26" t="s">
+      <c r="H231" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="H231" s="26" t="s">
+      <c r="I231" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="I231" s="26" t="s">
+      <c r="J231" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="J231" s="26" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B232" s="15">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E232" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="F232" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="F232" s="26" t="s">
+      <c r="G232" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="G232" s="26" t="s">
+      <c r="H232" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="H232" s="26" t="s">
+      <c r="I232" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="I232" s="26" t="s">
+      <c r="J232" s="26" t="s">
         <v>469</v>
-      </c>
-      <c r="J232" s="26" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B233" s="15">
         <v>6</v>
       </c>
       <c r="C233" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E233" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="F233" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="F233" s="26" t="s">
+      <c r="G233" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="G233" s="26" t="s">
+      <c r="H233" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="H233" s="26" t="s">
+      <c r="I233" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="I233" s="26" t="s">
+      <c r="J233" s="26" t="s">
         <v>475</v>
-      </c>
-      <c r="J233" s="26" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B234" s="15">
         <v>1</v>
       </c>
       <c r="C234" t="s">
+        <v>623</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E234" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="D234" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E234" s="26" t="s">
+      <c r="F234" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="F234" s="26" t="s">
+      <c r="G234" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="G234" s="26" t="s">
+      <c r="H234" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="H234" s="26" t="s">
+      <c r="I234" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="I234" s="26" t="s">
+      <c r="J234" s="26" t="s">
         <v>629</v>
-      </c>
-      <c r="J234" s="26" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B235" s="15">
         <v>3</v>
       </c>
       <c r="C235" t="s">
+        <v>451</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E235" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D235" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E235" s="26" t="s">
+      <c r="F235" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="F235" s="26" t="s">
+      <c r="G235" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="G235" s="26" t="s">
+      <c r="H235" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="H235" s="26" t="s">
+      <c r="I235" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="I235" s="26" t="s">
+      <c r="J235" s="26" t="s">
         <v>457</v>
-      </c>
-      <c r="J235" s="26" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B236" s="15">
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E236" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="F236" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="F236" s="26" t="s">
+      <c r="G236" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="G236" s="26" t="s">
+      <c r="H236" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="H236" s="26" t="s">
+      <c r="I236" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="I236" s="26" t="s">
+      <c r="J236" s="26" t="s">
         <v>469</v>
-      </c>
-      <c r="J236" s="26" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B237" s="15">
         <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E237" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="F237" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="F237" s="26" t="s">
+      <c r="G237" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="G237" s="26" t="s">
+      <c r="H237" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="H237" s="26" t="s">
+      <c r="I237" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="I237" s="26" t="s">
+      <c r="J237" s="26" t="s">
         <v>475</v>
-      </c>
-      <c r="J237" s="26" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B238" s="15">
         <v>2</v>
       </c>
       <c r="C238" t="s">
+        <v>444</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E238" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="D238" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E238" s="26" t="s">
+      <c r="F238" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="F238" s="26" t="s">
+      <c r="G238" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="G238" s="26" t="s">
+      <c r="H238" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="H238" s="26" t="s">
+      <c r="I238" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="I238" s="26" t="s">
+      <c r="J238" s="26" t="s">
         <v>450</v>
-      </c>
-      <c r="J238" s="26" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B239" s="15">
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E239" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="F239" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="F239" s="26" t="s">
+      <c r="G239" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="G239" s="26" t="s">
+      <c r="H239" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="H239" s="26" t="s">
+      <c r="I239" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="I239" s="26" t="s">
+      <c r="J239" s="26" t="s">
         <v>469</v>
-      </c>
-      <c r="J239" s="26" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B240" s="15">
         <v>1</v>
       </c>
       <c r="C240" t="s">
+        <v>476</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E240" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E240" s="26" t="s">
+      <c r="F240" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="F240" s="26" t="s">
+      <c r="G240" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="G240" s="26" t="s">
+      <c r="H240" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="H240" s="26" t="s">
+      <c r="I240" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="I240" s="26" t="s">
+      <c r="J240" s="26" t="s">
         <v>482</v>
-      </c>
-      <c r="J240" s="26" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B241" s="15">
         <v>1</v>
       </c>
       <c r="C241" t="s">
+        <v>483</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E241" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="D241" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E241" s="26" t="s">
+      <c r="F241" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="F241" s="26" t="s">
+      <c r="G241" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="G241" s="26" t="s">
+      <c r="H241" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="H241" s="26" t="s">
+      <c r="I241" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="I241" s="26" t="s">
+      <c r="J241" s="26" t="s">
         <v>489</v>
-      </c>
-      <c r="J241" s="26" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B242" s="15">
         <v>2</v>
       </c>
       <c r="C242" t="s">
+        <v>490</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E242" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="D242" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E242" s="26" t="s">
+      <c r="F242" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="F242" s="26" t="s">
+      <c r="G242" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="G242" s="26" t="s">
+      <c r="H242" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="H242" s="26" t="s">
+      <c r="I242" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="I242" s="26" t="s">
+      <c r="J242" s="26" t="s">
         <v>496</v>
-      </c>
-      <c r="J242" s="26" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B243" s="15">
         <v>3</v>
       </c>
       <c r="C243" t="s">
+        <v>497</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E243" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="D243" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E243" s="26" t="s">
+      <c r="F243" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="F243" s="26" t="s">
+      <c r="G243" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="G243" s="26" t="s">
+      <c r="H243" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="H243" s="26" t="s">
+      <c r="I243" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="I243" s="26" t="s">
+      <c r="J243" s="26" t="s">
         <v>503</v>
-      </c>
-      <c r="J243" s="26" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B244" s="15">
         <v>4</v>
       </c>
       <c r="C244" t="s">
+        <v>504</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E244" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="D244" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="E244" s="26" t="s">
+      <c r="F244" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="F244" s="26" t="s">
+      <c r="G244" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="G244" s="26" t="s">
+      <c r="H244" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="H244" s="26" t="s">
+      <c r="I244" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="I244" s="26" t="s">
+      <c r="J244" s="26" t="s">
         <v>510</v>
-      </c>
-      <c r="J244" s="26" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B245" s="15">
         <v>5</v>
       </c>
       <c r="C245" t="s">
+        <v>511</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E245" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="D245" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E245" s="26" t="s">
+      <c r="F245" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="F245" s="26" t="s">
+      <c r="G245" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="G245" s="26" t="s">
+      <c r="H245" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="H245" s="26" t="s">
+      <c r="I245" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="I245" s="26" t="s">
+      <c r="J245" s="26" t="s">
         <v>517</v>
-      </c>
-      <c r="J245" s="26" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B246" s="15">
         <v>6</v>
       </c>
       <c r="C246" t="s">
+        <v>518</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E246" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="D246" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E246" s="26" t="s">
+      <c r="F246" s="26" t="s">
         <v>520</v>
       </c>
-      <c r="F246" s="26" t="s">
+      <c r="G246" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="G246" s="26" t="s">
+      <c r="H246" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="H246" s="26" t="s">
+      <c r="I246" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="I246" s="26" t="s">
+      <c r="J246" s="26" t="s">
         <v>524</v>
-      </c>
-      <c r="J246" s="26" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B247" s="15">
         <v>7</v>
       </c>
       <c r="C247" t="s">
+        <v>525</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E247" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="D247" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E247" s="26" t="s">
+      <c r="F247" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="F247" s="26" t="s">
+      <c r="G247" s="26" t="s">
         <v>528</v>
       </c>
-      <c r="G247" s="26" t="s">
+      <c r="H247" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="H247" s="26" t="s">
+      <c r="I247" s="26" t="s">
         <v>530</v>
       </c>
-      <c r="I247" s="26" t="s">
+      <c r="J247" s="26" t="s">
         <v>531</v>
-      </c>
-      <c r="J247" s="26" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B248" s="15">
         <v>8</v>
       </c>
       <c r="C248" t="s">
+        <v>532</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E248" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="D248" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E248" s="26" t="s">
+      <c r="F248" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="F248" s="26" t="s">
+      <c r="G248" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="G248" s="26" t="s">
+      <c r="H248" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="H248" s="26" t="s">
+      <c r="I248" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="I248" s="26" t="s">
+      <c r="J248" s="26" t="s">
         <v>538</v>
-      </c>
-      <c r="J248" s="26" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B249" s="15">
         <v>0</v>
       </c>
       <c r="C249" t="s">
+        <v>539</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E249" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="D249" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="E249" s="26" t="s">
+      <c r="F249" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="F249" s="26" t="s">
+      <c r="G249" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="G249" s="26" t="s">
+      <c r="H249" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="H249" s="26" t="s">
+      <c r="I249" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="I249" s="26" t="s">
+      <c r="J249" s="26" t="s">
         <v>545</v>
-      </c>
-      <c r="J249" s="26" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B250" s="15">
         <v>1</v>
       </c>
       <c r="C250" t="s">
+        <v>546</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E250" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="D250" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E250" s="26" t="s">
+      <c r="F250" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="F250" s="26" t="s">
+      <c r="G250" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="G250" s="26" t="s">
+      <c r="H250" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="H250" s="26" t="s">
+      <c r="I250" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="I250" s="26" t="s">
+      <c r="J250" s="26" t="s">
         <v>552</v>
-      </c>
-      <c r="J250" s="26" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B251" s="15">
         <v>2</v>
       </c>
       <c r="C251" t="s">
+        <v>553</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E251" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="D251" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="E251" s="26" t="s">
+      <c r="F251" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="F251" s="26" t="s">
+      <c r="G251" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="G251" s="26" t="s">
+      <c r="H251" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="H251" s="26" t="s">
+      <c r="I251" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="I251" s="26" t="s">
+      <c r="J251" s="26" t="s">
         <v>559</v>
-      </c>
-      <c r="J251" s="26" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B252" s="15">
         <v>3</v>
       </c>
       <c r="C252" t="s">
+        <v>560</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E252" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="D252" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E252" s="26" t="s">
+      <c r="F252" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="F252" s="26" t="s">
+      <c r="G252" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="G252" s="26" t="s">
+      <c r="H252" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="H252" s="26" t="s">
+      <c r="I252" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="I252" s="26" t="s">
+      <c r="J252" s="26" t="s">
         <v>566</v>
-      </c>
-      <c r="J252" s="26" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B253" s="15">
         <v>1</v>
       </c>
       <c r="C253" t="s">
+        <v>567</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E253" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="E253" s="26" t="s">
+      <c r="F253" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="F253" s="26" t="s">
+      <c r="G253" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="G253" s="26" t="s">
+      <c r="H253" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="H253" s="26" t="s">
+      <c r="I253" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="I253" s="26" t="s">
+      <c r="J253" s="26" t="s">
         <v>573</v>
-      </c>
-      <c r="J253" s="26" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B254" s="15">
         <v>2</v>
       </c>
       <c r="C254" t="s">
+        <v>574</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E254" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="D254" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E254" s="26" t="s">
+      <c r="F254" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="F254" s="26" t="s">
+      <c r="G254" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="G254" s="26" t="s">
+      <c r="H254" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="H254" s="26" t="s">
+      <c r="I254" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="I254" s="26" t="s">
+      <c r="J254" s="26" t="s">
         <v>580</v>
-      </c>
-      <c r="J254" s="26" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B255" s="15">
         <v>3</v>
       </c>
       <c r="C255" t="s">
+        <v>581</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E255" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="D255" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E255" s="26" t="s">
+      <c r="F255" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="F255" s="26" t="s">
+      <c r="G255" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="G255" s="26" t="s">
+      <c r="H255" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="H255" s="26" t="s">
+      <c r="I255" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="I255" s="26" t="s">
+      <c r="J255" s="26" t="s">
         <v>587</v>
-      </c>
-      <c r="J255" s="26" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B256" s="15">
         <v>4</v>
       </c>
       <c r="C256" t="s">
+        <v>588</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E256" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="D256" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="E256" s="26" t="s">
+      <c r="F256" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="F256" s="26" t="s">
+      <c r="G256" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="G256" s="26" t="s">
+      <c r="H256" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="H256" s="26" t="s">
+      <c r="I256" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="I256" s="26" t="s">
+      <c r="J256" s="26" t="s">
         <v>594</v>
-      </c>
-      <c r="J256" s="26" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B257" s="15">
         <v>5</v>
       </c>
       <c r="C257" t="s">
+        <v>595</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E257" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="D257" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E257" s="26" t="s">
+      <c r="F257" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="F257" s="26" t="s">
+      <c r="G257" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="G257" s="26" t="s">
+      <c r="H257" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="H257" s="26" t="s">
+      <c r="I257" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="I257" s="26" t="s">
+      <c r="J257" s="26" t="s">
         <v>601</v>
-      </c>
-      <c r="J257" s="26" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B258" s="15">
         <v>6</v>
       </c>
       <c r="C258" t="s">
+        <v>602</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E258" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="D258" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="E258" s="26" t="s">
+      <c r="F258" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="F258" s="26" t="s">
+      <c r="G258" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="G258" s="26" t="s">
+      <c r="H258" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="H258" s="26" t="s">
+      <c r="I258" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="I258" s="26" t="s">
+      <c r="J258" s="26" t="s">
         <v>608</v>
-      </c>
-      <c r="J258" s="26" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B259" s="15">
         <v>7</v>
       </c>
       <c r="C259" t="s">
+        <v>679</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E259" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="F259" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="G259" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="H259" s="26" t="s">
         <v>684</v>
       </c>
-      <c r="D259" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E259" s="26" t="s">
+      <c r="I259" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="J259" s="26" t="s">
         <v>686</v>
-      </c>
-      <c r="F259" s="26" t="s">
-        <v>687</v>
-      </c>
-      <c r="G259" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="H259" s="26" t="s">
-        <v>689</v>
-      </c>
-      <c r="I259" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="J259" s="26" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B260" s="15">
         <v>8</v>
       </c>
       <c r="C260" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E260" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="F260" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="G260" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="H260" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="I260" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="J260" s="26" t="s">
         <v>692</v>
-      </c>
-      <c r="F260" s="26" t="s">
-        <v>693</v>
-      </c>
-      <c r="G260" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="H260" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="I260" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="J260" s="26" t="s">
-        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -11508,25 +11510,25 @@
         <v>165</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>166</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>384</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -11540,16 +11542,16 @@
         <v>288</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -11563,16 +11565,16 @@
         <v>288</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -11586,13 +11588,13 @@
         <v>288</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
@@ -11609,16 +11611,16 @@
         <v>289</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -11632,16 +11634,16 @@
         <v>289</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -11655,16 +11657,16 @@
         <v>290</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -11678,16 +11680,16 @@
         <v>290</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -11701,13 +11703,13 @@
         <v>290</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -11724,13 +11726,13 @@
         <v>290</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -11747,13 +11749,13 @@
         <v>290</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
@@ -11770,13 +11772,13 @@
         <v>290</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -11793,13 +11795,13 @@
         <v>290</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -11816,16 +11818,16 @@
         <v>290</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -11839,16 +11841,16 @@
         <v>290</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -11862,16 +11864,16 @@
         <v>290</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -11885,16 +11887,16 @@
         <v>290</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11908,16 +11910,16 @@
         <v>290</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11931,16 +11933,16 @@
         <v>290</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11954,16 +11956,16 @@
         <v>290</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -11977,16 +11979,16 @@
         <v>290</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
@@ -12000,19 +12002,19 @@
         <v>290</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12026,16 +12028,16 @@
         <v>290</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12049,16 +12051,16 @@
         <v>288</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12072,16 +12074,16 @@
         <v>290</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12095,16 +12097,16 @@
         <v>290</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12118,16 +12120,16 @@
         <v>290</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12141,16 +12143,16 @@
         <v>290</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -12164,16 +12166,16 @@
         <v>290</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -12187,19 +12189,19 @@
         <v>290</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -12213,16 +12215,16 @@
         <v>290</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -12236,16 +12238,16 @@
         <v>290</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -12256,19 +12258,19 @@
         <v>297</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -12282,16 +12284,16 @@
         <v>290</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -12305,16 +12307,16 @@
         <v>290</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -12328,16 +12330,16 @@
         <v>290</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -12351,16 +12353,16 @@
         <v>290</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -12374,16 +12376,16 @@
         <v>290</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -12397,16 +12399,16 @@
         <v>290</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -12420,16 +12422,16 @@
         <v>290</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>153</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -12443,16 +12445,16 @@
         <v>290</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -12466,16 +12468,16 @@
         <v>290</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -12489,16 +12491,16 @@
         <v>290</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -12512,16 +12514,16 @@
         <v>290</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -12535,16 +12537,16 @@
         <v>290</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -12558,16 +12560,16 @@
         <v>290</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -12581,13 +12583,13 @@
         <v>290</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
@@ -12604,13 +12606,13 @@
         <v>290</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
@@ -12627,16 +12629,16 @@
         <v>290</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -12650,16 +12652,16 @@
         <v>290</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -12673,16 +12675,16 @@
         <v>290</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -12696,16 +12698,16 @@
         <v>290</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
